--- a/biology/Zoologie/Blissus_leucopterus/Blissus_leucopterus.xlsx
+++ b/biology/Zoologie/Blissus_leucopterus/Blissus_leucopterus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blissus leucopterus, une espèce de " punaise des céréales " est un petit insecte d'Amérique de l'ordre des Hemiptera et de la famille des Blissidae.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le représentant le plus commun du genre Blissus, qui sont tous des punaises (chinch bug).
-Alimentation
-Ces punaises se nourrissent de tiges d'herbes (dont des céréales), dont elles sucent la sève[1],[2].
 </t>
         </is>
       </c>
@@ -541,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blissus leucopterus adulte fait environ 4 mm de long[1]. Sa couleur varie d'un rouge foncé au brun pour le corps avec des ailes transparentes et des pattes rouges. Les nymphes sont typiquement rouges et font la moitié de la taille d'un adulte. Une bande blanche sur leur abdomen est un signe distinctif[2].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces punaises se nourrissent de tiges d'herbes (dont des céréales), dont elles sucent la sève,.
 </t>
         </is>
       </c>
@@ -572,12 +590,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blissus leucopterus adulte fait environ 4 mm de long. Sa couleur varie d'un rouge foncé au brun pour le corps avec des ailes transparentes et des pattes rouges. Les nymphes sont typiquement rouges et font la moitié de la taille d'un adulte. Une bande blanche sur leur abdomen est un signe distinctif.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Blissus_leucopterus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blissus_leucopterus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouve à travers le sud du Canada, aux États-Unis et en Amérique centrale[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouve à travers le sud du Canada, aux États-Unis et en Amérique centrale. 
 </t>
         </is>
       </c>
